--- a/biology/Médecine/Fibrome/Fibrome.xlsx
+++ b/biology/Médecine/Fibrome/Fibrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fibrome est une tumeur bénigne (non cancéreuse), développée par prolifération fibroblastique pure. Il se compose de tissus conjonctif ou fibreux. Il peut se développer sur tout organe, à partir du mésenchyme. Les termes « fibroblastique » ou « fibromateux » s'appliquent aux tumeurs du tissu conjonctif fibreux. 
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisation du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « fibrome » est réservé aux tumeurs bénignes, alors que les tumeurs malignes sont appelées fibrosarcomes. 
 Les exemples sont essentiellement dermatologiques tel le fibrome mou ou molluscum pendulum, petite tumeur cutanée très fréquente, de consistance molle et allongée, parfois pédiculée, souvent située sur le cou, le thorax ou les aisselles.
